--- a/Excel/systemPrompt.系统提示表.xlsx
+++ b/Excel/systemPrompt.系统提示表.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yansanmu/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7112D7-A2F7-416C-A3B5-969100542632}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -20,11 +16,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1300,7 +1296,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1506,7 +1502,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1523,20 +1519,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
@@ -1547,19 +1534,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1836,25 +1823,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="32.625" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="79.6640625" customWidth="1"/>
+    <col min="6" max="6" width="79.625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1930,22 +1917,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="51.1640625" customWidth="1"/>
+    <col min="3" max="3" width="51.125" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -1967,756 +1954,799 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>18</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="3">
         <v>19</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="3">
         <v>21</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>22</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="3">
         <v>23</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>24</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="3">
         <v>25</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>26</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="3">
         <v>27</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>28</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="3">
         <v>29</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>30</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="3">
         <v>31</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>32</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="3">
         <v>33</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>34</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="3">
         <v>35</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>36</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="3">
         <v>37</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>38</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="3">
         <v>39</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>40</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="3">
         <v>41</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>42</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="3">
         <v>43</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>44</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="3">
         <v>45</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>46</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>47</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="3">
         <v>47</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>48</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>48</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>49</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="3">
         <v>49</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
-    </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="12"/>
-    </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
-    </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="12"/>
-    </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
-    </row>
-    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="12"/>
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/systemPrompt.系统提示表.xlsx
+++ b/Excel/systemPrompt.系统提示表.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7112D7-A2F7-416C-A3B5-969100542632}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yansanmu/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -16,11 +20,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1296,7 +1300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1502,7 +1506,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1519,11 +1523,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
@@ -1534,19 +1547,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="10"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="3"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="6"/>
+    <cellStyle name="因变Grid" xfId="7"/>
+    <cellStyle name="英文标题" xfId="12"/>
+    <cellStyle name="中文标题" xfId="2"/>
+    <cellStyle name="纵向标题" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1823,25 +1836,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="79.625" customWidth="1"/>
+    <col min="6" max="6" width="79.6640625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1917,22 +1930,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="51.125" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="30.125" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -1954,799 +1967,756 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="6">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <v>15</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="6">
         <v>17</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>18</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="6">
         <v>19</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
         <v>21</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="6">
         <v>21</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>22</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
         <v>23</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="6">
         <v>23</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>24</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
         <v>25</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="6">
         <v>25</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>26</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
         <v>27</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="6">
         <v>27</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>28</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
         <v>29</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="6">
         <v>29</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+    </row>
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>30</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
         <v>31</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="6">
         <v>31</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+    </row>
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>32</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+    </row>
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
         <v>33</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="6">
         <v>33</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>34</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>34</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
         <v>35</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="6">
         <v>35</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+    </row>
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>36</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>36</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+    </row>
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
         <v>37</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="6">
         <v>37</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+    </row>
+    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>38</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>38</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+    </row>
+    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
         <v>39</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="6">
         <v>39</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+    </row>
+    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>40</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>40</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+    </row>
+    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
         <v>41</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="6">
         <v>41</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+    </row>
+    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>42</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+    </row>
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
         <v>43</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="6">
         <v>43</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+    </row>
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>44</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+    </row>
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
         <v>45</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="6">
         <v>45</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+    </row>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>46</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49">
         <v>46</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+    </row>
+    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
         <v>47</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="6">
         <v>47</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+    </row>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>48</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>48</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" t="s">
         <v>89</v>
       </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+    </row>
+    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
         <v>49</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="6">
         <v>49</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-    </row>
-    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="9"/>
-    </row>
-    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9"/>
-    </row>
-    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="9"/>
-    </row>
-    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
-    </row>
-    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="9"/>
+    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+    </row>
+    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="12"/>
+    </row>
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+    </row>
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="12"/>
+    </row>
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+    </row>
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/systemPrompt.系统提示表.xlsx
+++ b/Excel/systemPrompt.系统提示表.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yansanmu/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E8F39E-7E1F-428C-BC98-E3DED237AB42}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16245" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="系统提示" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="126">
   <si>
     <t>sheet名</t>
   </si>
@@ -1294,13 +1290,25 @@
     <rPh sb="4" eb="5">
       <t>xiang'qian</t>
     </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你，指挥官。在与{0}的战斗中获得胜利，取得伤害第一的优异成绩，特发奖励以兹鼓励。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1506,7 +1514,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1523,20 +1531,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
@@ -1547,19 +1546,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1836,25 +1835,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="32.625" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="79.6640625" customWidth="1"/>
+    <col min="6" max="6" width="79.625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1930,22 +1929,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="51.1640625" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="113.75" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -1953,10 +1954,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1964,759 +1968,969 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>18</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="3">
         <v>19</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="3">
         <v>21</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>22</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="3">
         <v>23</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>24</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="3">
         <v>25</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>26</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="3">
         <v>27</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>28</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="3">
         <v>29</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>30</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="3">
         <v>31</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>32</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="3">
         <v>33</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>34</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="3">
         <v>35</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>36</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="3">
         <v>37</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>38</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="3">
         <v>39</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>40</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="3">
         <v>41</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>42</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="3">
         <v>43</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>44</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="3">
         <v>45</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>46</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>47</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="3">
         <v>47</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>48</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>48</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F51" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>49</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="3">
         <v>49</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
-    </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="12"/>
-    </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
-    </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="12"/>
-    </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
-    </row>
-    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="12"/>
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
